--- a/biology/Médecine/Méliandou/Méliandou.xlsx
+++ b/biology/Médecine/Méliandou/Méliandou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9liandou</t>
+          <t>Méliandou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Méliandou est un village de la préfecture de Guéckédou, dans la région de Nzérékoré sud de la république de Guinée. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9liandou</t>
+          <t>Méliandou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chercheurs médicaux pensent que le village a été le lieu du premier cas connu de la maladie à virus Ebola lors de l'épidémie de 2013 en Afrique de l'Ouest[1].
-Le patient zéro d'Ebola était Emile Ouamouno un garçon de deux ans décédé en 2013. La mère, la sœur et la grand-mère enceintes du garçon sont également tombées malades avec des symptômes compatibles avec une infection à Ebola et sont décédées. Les personnes infectées par ces victimes ont ensuite propagé la maladie dans d'autres villages[2],[3],[4],[5].
-Avant l'épidémie d'Ebola, les villageois vendaient leurs produits agricoles à la ville voisine de Guéckédou[6]. À partir d'octobre 2014, ils sont stigmatisés et incapables de vendre leurs produits.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chercheurs médicaux pensent que le village a été le lieu du premier cas connu de la maladie à virus Ebola lors de l'épidémie de 2013 en Afrique de l'Ouest.
+Le patient zéro d'Ebola était Emile Ouamouno un garçon de deux ans décédé en 2013. La mère, la sœur et la grand-mère enceintes du garçon sont également tombées malades avec des symptômes compatibles avec une infection à Ebola et sont décédées. Les personnes infectées par ces victimes ont ensuite propagé la maladie dans d'autres villages.
+Avant l'épidémie d'Ebola, les villageois vendaient leurs produits agricoles à la ville voisine de Guéckédou. À partir d'octobre 2014, ils sont stigmatisés et incapables de vendre leurs produits.
 </t>
         </is>
       </c>
